--- a/excel_reports/Matthew_Cano.xlsx
+++ b/excel_reports/Matthew_Cano.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19663" uniqueCount="4468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19691" uniqueCount="4471">
   <si>
     <t>Policy Record</t>
   </si>
@@ -12845,6 +12845,12 @@
     <t>3172252232</t>
   </si>
   <si>
+    <t>3172287871</t>
+  </si>
+  <si>
+    <t>Seifert</t>
+  </si>
+  <si>
     <t>3172392007</t>
   </si>
   <si>
@@ -12897,6 +12903,9 @@
   </si>
   <si>
     <t>3172310867</t>
+  </si>
+  <si>
+    <t>3699890433</t>
   </si>
   <si>
     <t>3172361614</t>
@@ -13837,12 +13846,12 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4439</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>4440</v>
+        <v>4443</v>
       </c>
       <c r="B2" s="2">
         <v>648</v>
@@ -13850,7 +13859,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>4441</v>
+        <v>4444</v>
       </c>
       <c r="B3" s="2">
         <v>885</v>
@@ -13858,18 +13867,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>4442</v>
+        <v>4445</v>
       </c>
       <c r="B4" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4443</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>4444</v>
+        <v>4447</v>
       </c>
       <c r="B5" s="4">
         <f>B3+B4-B2</f>
@@ -13878,7 +13887,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>4445</v>
+        <v>4448</v>
       </c>
       <c r="B6" s="2">
         <v>-30</v>
@@ -13886,30 +13895,30 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>4446</v>
+        <v>4449</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>4447</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>4448</v>
+        <v>4451</v>
       </c>
       <c r="B8" s="4">
         <f>SUM(B5:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4449</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>4450</v>
+        <v>4453</v>
       </c>
       <c r="B9" s="5">
         <f>MAX(0, B8*150)</f>
@@ -13918,12 +13927,12 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>4451</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>4452</v>
+        <v>4455</v>
       </c>
       <c r="B12" s="2">
         <v>57</v>
@@ -13931,20 +13940,20 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>4453</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>4454</v>
+        <v>4457</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4467</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>4455</v>
+        <v>4458</v>
       </c>
       <c r="B17" s="5">
         <f>SUM(Core!T:T)</f>
@@ -13953,12 +13962,12 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>4456</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>4457</v>
+        <v>4460</v>
       </c>
       <c r="B20">
         <v>88</v>
@@ -13966,15 +13975,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>4458</v>
+        <v>4461</v>
       </c>
       <c r="B21">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>4459</v>
+        <v>4462</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -13982,7 +13991,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>4460</v>
+        <v>4463</v>
       </c>
       <c r="B23">
         <f>-B20+B21+B22</f>
@@ -13991,7 +14000,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>4461</v>
+        <v>4464</v>
       </c>
       <c r="B24" s="5">
         <f>B23*50</f>
@@ -14000,7 +14009,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>4462</v>
+        <v>4465</v>
       </c>
       <c r="B26">
         <v>17</v>
@@ -14008,7 +14017,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>4463</v>
+        <v>4466</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -14016,7 +14025,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>4464</v>
+        <v>4467</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -14024,7 +14033,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>4465</v>
+        <v>4468</v>
       </c>
       <c r="B29">
         <f>-B26+B27+B28</f>
@@ -14033,7 +14042,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>4466</v>
+        <v>4469</v>
       </c>
       <c r="B30" s="5">
         <f>B29*100</f>
@@ -73879,7 +73888,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T234"/>
+  <dimension ref="A1:T238"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -74988,24 +74997,24 @@
         <v>481</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:14">
       <c r="A50" s="7" t="s">
         <v>4274</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>713</v>
+        <v>975</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>972</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>372</v>
+        <v>3693</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>373</v>
+        <v>4275</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>372</v>
@@ -75026,24 +75035,24 @@
         <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>2439</v>
+        <v>2382</v>
       </c>
       <c r="N50" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="7" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>4276</v>
+        <v>971</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>4277</v>
+        <v>713</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>4278</v>
+        <v>972</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>372</v>
@@ -75061,7 +75070,7 @@
         <v>4232</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>4279</v>
+        <v>4233</v>
       </c>
       <c r="K52" t="s">
         <v>4234</v>
@@ -75070,24 +75079,24 @@
         <v>18</v>
       </c>
       <c r="M52" t="s">
+        <v>2439</v>
+      </c>
+      <c r="N52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="7" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>4280</v>
-      </c>
-      <c r="N52" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="A54" s="7" t="s">
-        <v>4281</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>4282</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>4283</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>372</v>
@@ -75105,7 +75114,7 @@
         <v>4232</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>4233</v>
+        <v>4281</v>
       </c>
       <c r="K54" t="s">
         <v>4234</v>
@@ -75114,24 +75123,24 @@
         <v>18</v>
       </c>
       <c r="M54" t="s">
-        <v>2735</v>
+        <v>4282</v>
       </c>
       <c r="N54" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="7" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>4284</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>1054</v>
-      </c>
       <c r="C56" s="8" t="s">
-        <v>1055</v>
+        <v>242</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>1056</v>
+        <v>4285</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>372</v>
@@ -75158,24 +75167,24 @@
         <v>18</v>
       </c>
       <c r="M56" t="s">
-        <v>4285</v>
+        <v>2735</v>
       </c>
       <c r="N56" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="7" t="s">
         <v>4286</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>133</v>
+        <v>1055</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>134</v>
+        <v>1056</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>372</v>
@@ -75202,24 +75211,24 @@
         <v>18</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>4287</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="7" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>791</v>
+        <v>133</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>1063</v>
+        <v>134</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>372</v>
@@ -75237,7 +75246,7 @@
         <v>4232</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>4253</v>
+        <v>4233</v>
       </c>
       <c r="K60" t="s">
         <v>4234</v>
@@ -75246,21 +75255,21 @@
         <v>18</v>
       </c>
       <c r="M60" t="s">
-        <v>888</v>
+        <v>136</v>
       </c>
       <c r="N60" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="7" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1002</v>
+        <v>791</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>1063</v>
@@ -75281,7 +75290,7 @@
         <v>4232</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>4233</v>
+        <v>4253</v>
       </c>
       <c r="K62" t="s">
         <v>4234</v>
@@ -75290,21 +75299,21 @@
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>290</v>
+        <v>888</v>
       </c>
       <c r="N62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="7" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1062</v>
+        <v>1002</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>1063</v>
@@ -75331,7 +75340,7 @@
         <v>4234</v>
       </c>
       <c r="L64" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
         <v>290</v>
@@ -75339,25 +75348,19 @@
       <c r="N64" t="s">
         <v>21</v>
       </c>
-      <c r="O64" t="s">
-        <v>277</v>
-      </c>
-      <c r="P64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="7" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>38</v>
+        <v>1062</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>372</v>
@@ -75375,33 +75378,39 @@
         <v>4232</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>4253</v>
+        <v>4233</v>
       </c>
       <c r="K66" t="s">
         <v>4234</v>
       </c>
       <c r="L66" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M66" t="s">
-        <v>888</v>
+        <v>290</v>
       </c>
       <c r="N66" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>21</v>
+      </c>
+      <c r="O66" t="s">
+        <v>277</v>
+      </c>
+      <c r="P66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="7" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1094</v>
+        <v>1070</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>730</v>
+        <v>38</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1095</v>
+        <v>1071</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>372</v>
@@ -75419,7 +75428,7 @@
         <v>4232</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>4244</v>
+        <v>4253</v>
       </c>
       <c r="K68" t="s">
         <v>4234</v>
@@ -75428,24 +75437,24 @@
         <v>18</v>
       </c>
       <c r="M68" t="s">
-        <v>1236</v>
+        <v>888</v>
       </c>
       <c r="N68" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="7" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1224</v>
+        <v>1094</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1225</v>
+        <v>730</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1226</v>
+        <v>1095</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>372</v>
@@ -75462,6 +75471,9 @@
       <c r="I70" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J70" s="8" t="s">
+        <v>4244</v>
+      </c>
       <c r="K70" t="s">
         <v>4234</v>
       </c>
@@ -75469,30 +75481,30 @@
         <v>18</v>
       </c>
       <c r="M70" t="s">
-        <v>1227</v>
+        <v>1236</v>
       </c>
       <c r="N70" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="7" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1255</v>
+        <v>1198</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>189</v>
+        <v>1199</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>190</v>
+        <v>1200</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>372</v>
+        <v>3693</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>373</v>
+        <v>4275</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>372</v>
@@ -75504,7 +75516,7 @@
         <v>4232</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>4233</v>
+        <v>4253</v>
       </c>
       <c r="K72" t="s">
         <v>4234</v>
@@ -75513,24 +75525,24 @@
         <v>18</v>
       </c>
       <c r="M72" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="N72" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:16">
       <c r="A74" s="7" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>4295</v>
+        <v>1224</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1713</v>
+        <v>1225</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1286</v>
+        <v>1226</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>372</v>
@@ -75547,9 +75559,6 @@
       <c r="I74" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J74" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K74" t="s">
         <v>4234</v>
       </c>
@@ -75557,24 +75566,24 @@
         <v>18</v>
       </c>
       <c r="M74" t="s">
-        <v>290</v>
+        <v>1227</v>
       </c>
       <c r="N74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="7" t="s">
         <v>4296</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1288</v>
+        <v>1255</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>601</v>
+        <v>189</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1289</v>
+        <v>190</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>372</v>
@@ -75591,6 +75600,9 @@
       <c r="I76" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J76" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K76" t="s">
         <v>4234</v>
       </c>
@@ -75598,24 +75610,24 @@
         <v>18</v>
       </c>
       <c r="M76" t="s">
-        <v>3497</v>
+        <v>191</v>
       </c>
       <c r="N76" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="7" t="s">
         <v>4297</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>3511</v>
+        <v>4298</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>84</v>
+        <v>1713</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>3512</v>
+        <v>1286</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>372</v>
@@ -75642,24 +75654,24 @@
         <v>18</v>
       </c>
       <c r="M78" t="s">
-        <v>842</v>
+        <v>290</v>
       </c>
       <c r="N78" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="7" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>3515</v>
+        <v>1288</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>3516</v>
+        <v>601</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>3512</v>
+        <v>1289</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>372</v>
@@ -75676,9 +75688,6 @@
       <c r="I80" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J80" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K80" t="s">
         <v>4234</v>
       </c>
@@ -75686,24 +75695,24 @@
         <v>18</v>
       </c>
       <c r="M80" t="s">
-        <v>1126</v>
+        <v>3497</v>
       </c>
       <c r="N80" t="s">
-        <v>842</v>
+        <v>623</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="7" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1342</v>
+        <v>3511</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>950</v>
+        <v>84</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>1343</v>
+        <v>3512</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>372</v>
@@ -75721,7 +75730,7 @@
         <v>4232</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K82" t="s">
         <v>4234</v>
@@ -75730,24 +75739,24 @@
         <v>18</v>
       </c>
       <c r="M82" t="s">
-        <v>2259</v>
+        <v>842</v>
       </c>
       <c r="N82" t="s">
-        <v>260</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="7" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1346</v>
+        <v>3515</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1347</v>
+        <v>3516</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>1348</v>
+        <v>3512</v>
       </c>
       <c r="E84" s="8" t="s">
         <v>372</v>
@@ -75774,24 +75783,24 @@
         <v>18</v>
       </c>
       <c r="M84" t="s">
-        <v>2349</v>
+        <v>1126</v>
       </c>
       <c r="N84" t="s">
-        <v>289</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="7" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1352</v>
+        <v>950</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>372</v>
@@ -75808,6 +75817,9 @@
       <c r="I86" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J86" s="8" t="s">
+        <v>4244</v>
+      </c>
       <c r="K86" t="s">
         <v>4234</v>
       </c>
@@ -75815,24 +75827,24 @@
         <v>18</v>
       </c>
       <c r="M86" t="s">
-        <v>1354</v>
+        <v>2259</v>
       </c>
       <c r="N86" t="s">
-        <v>446</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="7" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>4303</v>
+        <v>1346</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>4176</v>
+        <v>1347</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>4304</v>
+        <v>1348</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>372</v>
@@ -75859,24 +75871,24 @@
         <v>18</v>
       </c>
       <c r="M88" t="s">
-        <v>4305</v>
+        <v>2349</v>
       </c>
       <c r="N88" t="s">
-        <v>2427</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="7" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1406</v>
+        <v>1351</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1407</v>
+        <v>1352</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1404</v>
+        <v>1353</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>372</v>
@@ -75893,9 +75905,6 @@
       <c r="I90" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>4253</v>
-      </c>
       <c r="K90" t="s">
         <v>4234</v>
       </c>
@@ -75903,24 +75912,24 @@
         <v>18</v>
       </c>
       <c r="M90" t="s">
-        <v>1126</v>
+        <v>1354</v>
       </c>
       <c r="N90" t="s">
-        <v>842</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="7" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>4176</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>4307</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>1454</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>1456</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>372</v>
@@ -75937,6 +75946,9 @@
       <c r="I92" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J92" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K92" t="s">
         <v>4234</v>
       </c>
@@ -75944,24 +75956,24 @@
         <v>18</v>
       </c>
       <c r="M92" t="s">
-        <v>1457</v>
+        <v>4308</v>
       </c>
       <c r="N92" t="s">
-        <v>329</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="7" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1523</v>
+        <v>1406</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1524</v>
+        <v>1407</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1525</v>
+        <v>1404</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>372</v>
@@ -75979,7 +75991,7 @@
         <v>4232</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>4244</v>
+        <v>4253</v>
       </c>
       <c r="K94" t="s">
         <v>4234</v>
@@ -75988,24 +76000,24 @@
         <v>18</v>
       </c>
       <c r="M94" t="s">
-        <v>677</v>
+        <v>1126</v>
       </c>
       <c r="N94" t="s">
-        <v>299</v>
+        <v>842</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="7" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1574</v>
+        <v>1454</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>484</v>
+        <v>1455</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1575</v>
+        <v>1456</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>372</v>
@@ -76022,9 +76034,6 @@
       <c r="I96" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K96" t="s">
         <v>4234</v>
       </c>
@@ -76032,24 +76041,24 @@
         <v>18</v>
       </c>
       <c r="M96" t="s">
-        <v>1576</v>
+        <v>1457</v>
       </c>
       <c r="N96" t="s">
-        <v>882</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="7" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1605</v>
+        <v>1523</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1606</v>
+        <v>1524</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1607</v>
+        <v>1525</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>372</v>
@@ -76067,7 +76076,7 @@
         <v>4232</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K98" t="s">
         <v>4234</v>
@@ -76076,24 +76085,24 @@
         <v>18</v>
       </c>
       <c r="M98" t="s">
-        <v>1608</v>
+        <v>677</v>
       </c>
       <c r="N98" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="7" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1639</v>
+        <v>1574</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>654</v>
+        <v>484</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1640</v>
+        <v>1575</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>372</v>
@@ -76120,10 +76129,10 @@
         <v>18</v>
       </c>
       <c r="M100" t="s">
-        <v>4312</v>
+        <v>1576</v>
       </c>
       <c r="N100" t="s">
-        <v>303</v>
+        <v>882</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -76131,13 +76140,13 @@
         <v>4313</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1662</v>
+        <v>1605</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>474</v>
+        <v>1606</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1663</v>
+        <v>1607</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>372</v>
@@ -76164,10 +76173,10 @@
         <v>18</v>
       </c>
       <c r="M102" t="s">
-        <v>1664</v>
+        <v>1608</v>
       </c>
       <c r="N102" t="s">
-        <v>752</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -76175,13 +76184,13 @@
         <v>4314</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1666</v>
+        <v>1639</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>713</v>
+        <v>654</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1663</v>
+        <v>1640</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>372</v>
@@ -76208,24 +76217,24 @@
         <v>18</v>
       </c>
       <c r="M104" t="s">
-        <v>1664</v>
+        <v>4315</v>
       </c>
       <c r="N104" t="s">
-        <v>752</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="7" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1708</v>
+        <v>1662</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1542</v>
+        <v>474</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1709</v>
+        <v>1663</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>372</v>
@@ -76252,24 +76261,24 @@
         <v>18</v>
       </c>
       <c r="M106" t="s">
-        <v>1417</v>
+        <v>1664</v>
       </c>
       <c r="N106" t="s">
-        <v>311</v>
+        <v>752</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="7" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1724</v>
+        <v>1666</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>79</v>
+        <v>713</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1725</v>
+        <v>1663</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>372</v>
@@ -76287,7 +76296,7 @@
         <v>4232</v>
       </c>
       <c r="J108" s="8" t="s">
-        <v>4253</v>
+        <v>4233</v>
       </c>
       <c r="K108" t="s">
         <v>4234</v>
@@ -76296,24 +76305,24 @@
         <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>3776</v>
+        <v>1664</v>
       </c>
       <c r="N108" t="s">
-        <v>329</v>
+        <v>752</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="7" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1728</v>
+        <v>1708</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1729</v>
+        <v>1542</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1730</v>
+        <v>1709</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>372</v>
@@ -76340,24 +76349,24 @@
         <v>18</v>
       </c>
       <c r="M110" t="s">
-        <v>1731</v>
+        <v>1417</v>
       </c>
       <c r="N110" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="7" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>1735</v>
+        <v>1724</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1736</v>
+        <v>1725</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>372</v>
@@ -76375,7 +76384,7 @@
         <v>4232</v>
       </c>
       <c r="J112" s="8" t="s">
-        <v>4233</v>
+        <v>4253</v>
       </c>
       <c r="K112" t="s">
         <v>4234</v>
@@ -76384,24 +76393,24 @@
         <v>18</v>
       </c>
       <c r="M112" t="s">
-        <v>1737</v>
+        <v>3776</v>
       </c>
       <c r="N112" t="s">
-        <v>399</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="7" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>713</v>
+        <v>1729</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1741</v>
+        <v>1730</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>372</v>
@@ -76428,24 +76437,24 @@
         <v>18</v>
       </c>
       <c r="M114" t="s">
-        <v>1745</v>
+        <v>1731</v>
       </c>
       <c r="N114" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="7" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>1756</v>
+        <v>1735</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1757</v>
+        <v>372</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1758</v>
+        <v>1736</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>372</v>
@@ -76462,6 +76471,9 @@
       <c r="I116" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J116" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K116" t="s">
         <v>4234</v>
       </c>
@@ -76469,24 +76481,24 @@
         <v>18</v>
       </c>
       <c r="M116" t="s">
-        <v>1759</v>
+        <v>1737</v>
       </c>
       <c r="N116" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="7" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1869</v>
+        <v>1744</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>1062</v>
+        <v>713</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1870</v>
+        <v>1741</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>372</v>
@@ -76503,6 +76515,9 @@
       <c r="I118" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J118" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K118" t="s">
         <v>4234</v>
       </c>
@@ -76510,24 +76525,24 @@
         <v>18</v>
       </c>
       <c r="M118" t="s">
-        <v>1871</v>
+        <v>1745</v>
       </c>
       <c r="N118" t="s">
-        <v>464</v>
+        <v>329</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="7" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>1940</v>
+        <v>1756</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>79</v>
+        <v>1757</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1941</v>
+        <v>1758</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>372</v>
@@ -76544,9 +76559,6 @@
       <c r="I120" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J120" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K120" t="s">
         <v>4234</v>
       </c>
@@ -76554,10 +76566,10 @@
         <v>18</v>
       </c>
       <c r="M120" t="s">
-        <v>1987</v>
+        <v>1759</v>
       </c>
       <c r="N120" t="s">
-        <v>4323</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -76565,19 +76577,19 @@
         <v>4324</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>1955</v>
+        <v>1869</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>133</v>
+        <v>1062</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>1956</v>
+        <v>1870</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>4325</v>
+        <v>372</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>4326</v>
+        <v>373</v>
       </c>
       <c r="G122" s="8" t="s">
         <v>372</v>
@@ -76586,36 +76598,33 @@
         <v>373</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>4327</v>
+        <v>4232</v>
       </c>
       <c r="K122" t="s">
         <v>4234</v>
       </c>
       <c r="L122" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="M122" t="s">
-        <v>179</v>
+        <v>1871</v>
       </c>
       <c r="N122" t="s">
-        <v>191</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="7" t="s">
-        <v>4328</v>
+        <v>4325</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>1959</v>
+        <v>1940</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>975</v>
+        <v>79</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>1960</v>
+        <v>1941</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>372</v>
@@ -76633,7 +76642,7 @@
         <v>4232</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K124" t="s">
         <v>4234</v>
@@ -76642,31 +76651,31 @@
         <v>18</v>
       </c>
       <c r="M124" t="s">
-        <v>1011</v>
+        <v>1987</v>
       </c>
       <c r="N124" t="s">
-        <v>88</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="7" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1955</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>4328</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>4329</v>
       </c>
-      <c r="B126" s="7" t="s">
-        <v>1984</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>1985</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="G126" s="8" t="s">
         <v>372</v>
       </c>
@@ -76674,36 +76683,36 @@
         <v>373</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>4232</v>
+        <v>40</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>4233</v>
+        <v>4330</v>
       </c>
       <c r="K126" t="s">
         <v>4234</v>
       </c>
       <c r="L126" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="M126" t="s">
-        <v>1497</v>
+        <v>179</v>
       </c>
       <c r="N126" t="s">
-        <v>752</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="7" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>2025</v>
+        <v>1959</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>2026</v>
+        <v>975</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>2027</v>
+        <v>1960</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>372</v>
@@ -76721,7 +76730,7 @@
         <v>4232</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>4253</v>
+        <v>4244</v>
       </c>
       <c r="K128" t="s">
         <v>4234</v>
@@ -76730,24 +76739,24 @@
         <v>18</v>
       </c>
       <c r="M128" t="s">
-        <v>1457</v>
+        <v>1011</v>
       </c>
       <c r="N128" t="s">
-        <v>329</v>
+        <v>88</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="7" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>3792</v>
+        <v>1984</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>947</v>
+        <v>1985</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>2027</v>
+        <v>1986</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>372</v>
@@ -76765,7 +76774,7 @@
         <v>4232</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>4253</v>
+        <v>4233</v>
       </c>
       <c r="K130" t="s">
         <v>4234</v>
@@ -76774,24 +76783,24 @@
         <v>18</v>
       </c>
       <c r="M130" t="s">
-        <v>1457</v>
+        <v>1497</v>
       </c>
       <c r="N130" t="s">
-        <v>329</v>
+        <v>752</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="7" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>2033</v>
+        <v>2025</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>2034</v>
+        <v>2026</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>2035</v>
+        <v>2027</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>372</v>
@@ -76808,6 +76817,9 @@
       <c r="I132" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J132" s="8" t="s">
+        <v>4253</v>
+      </c>
       <c r="K132" t="s">
         <v>4234</v>
       </c>
@@ -76815,24 +76827,24 @@
         <v>18</v>
       </c>
       <c r="M132" t="s">
-        <v>2036</v>
+        <v>1457</v>
       </c>
       <c r="N132" t="s">
-        <v>259</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="7" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>2046</v>
+        <v>3792</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>45</v>
+        <v>947</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>46</v>
+        <v>2027</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>372</v>
@@ -76850,7 +76862,7 @@
         <v>4232</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>4267</v>
+        <v>4253</v>
       </c>
       <c r="K134" t="s">
         <v>4234</v>
@@ -76859,24 +76871,24 @@
         <v>18</v>
       </c>
       <c r="M134" t="s">
-        <v>47</v>
+        <v>1457</v>
       </c>
       <c r="N134" t="s">
-        <v>21</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="7" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>2071</v>
+        <v>2033</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2072</v>
+        <v>2034</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>2073</v>
+        <v>2035</v>
       </c>
       <c r="E136" s="8" t="s">
         <v>372</v>
@@ -76893,9 +76905,6 @@
       <c r="I136" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J136" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K136" t="s">
         <v>4234</v>
       </c>
@@ -76903,10 +76912,10 @@
         <v>18</v>
       </c>
       <c r="M136" t="s">
-        <v>2074</v>
+        <v>2036</v>
       </c>
       <c r="N136" t="s">
-        <v>4335</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -76914,13 +76923,13 @@
         <v>4336</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>3831</v>
+        <v>2046</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>3832</v>
+        <v>45</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>3833</v>
+        <v>46</v>
       </c>
       <c r="E138" s="8" t="s">
         <v>372</v>
@@ -76938,7 +76947,7 @@
         <v>4232</v>
       </c>
       <c r="J138" s="8" t="s">
-        <v>4244</v>
+        <v>4267</v>
       </c>
       <c r="K138" t="s">
         <v>4234</v>
@@ -76947,10 +76956,10 @@
         <v>18</v>
       </c>
       <c r="M138" t="s">
-        <v>1344</v>
+        <v>47</v>
       </c>
       <c r="N138" t="s">
-        <v>617</v>
+        <v>21</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -76958,13 +76967,13 @@
         <v>4337</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>2100</v>
+        <v>2071</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>717</v>
+        <v>2072</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>2101</v>
+        <v>2073</v>
       </c>
       <c r="E140" s="8" t="s">
         <v>372</v>
@@ -76982,7 +76991,7 @@
         <v>4232</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K140" t="s">
         <v>4234</v>
@@ -76991,24 +77000,24 @@
         <v>18</v>
       </c>
       <c r="M140" t="s">
-        <v>2102</v>
+        <v>2074</v>
       </c>
       <c r="N140" t="s">
-        <v>672</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="7" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>2132</v>
+        <v>3831</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>2133</v>
+        <v>3832</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>133</v>
+        <v>3833</v>
       </c>
       <c r="E142" s="8" t="s">
         <v>372</v>
@@ -77026,33 +77035,33 @@
         <v>4232</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>4279</v>
+        <v>4244</v>
       </c>
       <c r="K142" t="s">
         <v>4234</v>
       </c>
       <c r="L142" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="M142" t="s">
-        <v>637</v>
+        <v>1344</v>
       </c>
       <c r="N142" t="s">
-        <v>21</v>
+        <v>617</v>
       </c>
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="7" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>2137</v>
+        <v>2100</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>1542</v>
+        <v>717</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>2138</v>
+        <v>2101</v>
       </c>
       <c r="E144" s="8" t="s">
         <v>372</v>
@@ -77079,10 +77088,10 @@
         <v>18</v>
       </c>
       <c r="M144" t="s">
-        <v>4340</v>
+        <v>2102</v>
       </c>
       <c r="N144" t="s">
-        <v>404</v>
+        <v>672</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -77090,13 +77099,13 @@
         <v>4341</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>2148</v>
+        <v>2132</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>250</v>
+        <v>2133</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>2149</v>
+        <v>133</v>
       </c>
       <c r="E146" s="8" t="s">
         <v>372</v>
@@ -77111,22 +77120,22 @@
         <v>373</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>40</v>
+        <v>4232</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>4244</v>
+        <v>4281</v>
       </c>
       <c r="K146" t="s">
         <v>4234</v>
       </c>
       <c r="L146" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="M146" t="s">
-        <v>2883</v>
+        <v>637</v>
       </c>
       <c r="N146" t="s">
-        <v>260</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -77134,13 +77143,13 @@
         <v>4342</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>2155</v>
+        <v>2137</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>2156</v>
+        <v>1542</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>2152</v>
+        <v>2138</v>
       </c>
       <c r="E148" s="8" t="s">
         <v>372</v>
@@ -77167,24 +77176,24 @@
         <v>18</v>
       </c>
       <c r="M148" t="s">
-        <v>4173</v>
+        <v>4343</v>
       </c>
       <c r="N148" t="s">
-        <v>521</v>
+        <v>404</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="7" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>2189</v>
+        <v>2148</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>2190</v>
+        <v>2149</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>372</v>
@@ -77199,10 +77208,10 @@
         <v>373</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>4232</v>
+        <v>40</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K150" t="s">
         <v>4234</v>
@@ -77211,10 +77220,10 @@
         <v>18</v>
       </c>
       <c r="M150" t="s">
-        <v>4344</v>
+        <v>2883</v>
       </c>
       <c r="N150" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -77222,13 +77231,13 @@
         <v>4345</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>2229</v>
+        <v>2155</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>133</v>
+        <v>2156</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>2226</v>
+        <v>2152</v>
       </c>
       <c r="E152" s="8" t="s">
         <v>372</v>
@@ -77246,7 +77255,7 @@
         <v>4232</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K152" t="s">
         <v>4234</v>
@@ -77255,10 +77264,10 @@
         <v>18</v>
       </c>
       <c r="M152" t="s">
-        <v>1479</v>
+        <v>4173</v>
       </c>
       <c r="N152" t="s">
-        <v>393</v>
+        <v>521</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -77266,13 +77275,13 @@
         <v>4346</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>4347</v>
+        <v>2189</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>3459</v>
+        <v>242</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>4348</v>
+        <v>2190</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>372</v>
@@ -77299,24 +77308,24 @@
         <v>18</v>
       </c>
       <c r="M154" t="s">
-        <v>302</v>
+        <v>4347</v>
       </c>
       <c r="N154" t="s">
-        <v>289</v>
+        <v>393</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="7" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>4350</v>
+        <v>2229</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>536</v>
+        <v>133</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>4351</v>
+        <v>2226</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>372</v>
@@ -77325,7 +77334,7 @@
         <v>373</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>4352</v>
+        <v>372</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>373</v>
@@ -77343,24 +77352,24 @@
         <v>18</v>
       </c>
       <c r="M156" t="s">
-        <v>277</v>
+        <v>1479</v>
       </c>
       <c r="N156" t="s">
-        <v>21</v>
+        <v>393</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="7" t="s">
-        <v>4353</v>
+        <v>4349</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>4354</v>
+        <v>4350</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>4355</v>
+        <v>3459</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>4356</v>
+        <v>4351</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>372</v>
@@ -77378,7 +77387,7 @@
         <v>4232</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>4253</v>
+        <v>4233</v>
       </c>
       <c r="K158" t="s">
         <v>4234</v>
@@ -77387,24 +77396,24 @@
         <v>18</v>
       </c>
       <c r="M158" t="s">
-        <v>3763</v>
+        <v>302</v>
       </c>
       <c r="N158" t="s">
-        <v>3800</v>
+        <v>289</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="7" t="s">
-        <v>4357</v>
+        <v>4352</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>2289</v>
+        <v>4353</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>24</v>
+        <v>536</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>2290</v>
+        <v>4354</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>372</v>
@@ -77413,13 +77422,16 @@
         <v>373</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>372</v>
+        <v>4355</v>
       </c>
       <c r="H160" s="8" t="s">
         <v>373</v>
       </c>
       <c r="I160" s="8" t="s">
-        <v>40</v>
+        <v>4232</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>4233</v>
       </c>
       <c r="K160" t="s">
         <v>4234</v>
@@ -77428,24 +77440,24 @@
         <v>18</v>
       </c>
       <c r="M160" t="s">
-        <v>1546</v>
+        <v>277</v>
       </c>
       <c r="N160" t="s">
-        <v>756</v>
+        <v>21</v>
       </c>
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="7" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>4357</v>
+      </c>
+      <c r="C162" s="8" t="s">
         <v>4358</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>2337</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>713</v>
-      </c>
       <c r="D162" s="8" t="s">
-        <v>2333</v>
+        <v>4359</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>372</v>
@@ -77463,7 +77475,7 @@
         <v>4232</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>4233</v>
+        <v>4253</v>
       </c>
       <c r="K162" t="s">
         <v>4234</v>
@@ -77472,24 +77484,24 @@
         <v>18</v>
       </c>
       <c r="M162" t="s">
-        <v>2074</v>
+        <v>3763</v>
       </c>
       <c r="N162" t="s">
-        <v>289</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="7" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>2331</v>
+        <v>2289</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>2332</v>
+        <v>24</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>2333</v>
+        <v>2290</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>372</v>
@@ -77504,10 +77516,7 @@
         <v>373</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>4232</v>
-      </c>
-      <c r="J164" s="8" t="s">
-        <v>4233</v>
+        <v>40</v>
       </c>
       <c r="K164" t="s">
         <v>4234</v>
@@ -77516,24 +77525,24 @@
         <v>18</v>
       </c>
       <c r="M164" t="s">
-        <v>2074</v>
+        <v>1546</v>
       </c>
       <c r="N164" t="s">
-        <v>289</v>
+        <v>756</v>
       </c>
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="7" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>2358</v>
+        <v>2337</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>24</v>
+        <v>713</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>2359</v>
+        <v>2333</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>372</v>
@@ -77548,36 +77557,36 @@
         <v>373</v>
       </c>
       <c r="I166" s="8" t="s">
-        <v>40</v>
+        <v>4232</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>4327</v>
+        <v>4233</v>
       </c>
       <c r="K166" t="s">
         <v>4234</v>
       </c>
       <c r="L166" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="M166" t="s">
-        <v>1781</v>
+        <v>2074</v>
       </c>
       <c r="N166" t="s">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="7" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>2376</v>
+        <v>2331</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>2377</v>
+        <v>2332</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>2378</v>
+        <v>2333</v>
       </c>
       <c r="E168" s="8" t="s">
         <v>372</v>
@@ -77595,7 +77604,7 @@
         <v>4232</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>4267</v>
+        <v>4233</v>
       </c>
       <c r="K168" t="s">
         <v>4234</v>
@@ -77604,10 +77613,10 @@
         <v>18</v>
       </c>
       <c r="M168" t="s">
-        <v>4362</v>
+        <v>2074</v>
       </c>
       <c r="N168" t="s">
-        <v>2504</v>
+        <v>289</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -77615,13 +77624,13 @@
         <v>4363</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>2401</v>
+        <v>2358</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>2402</v>
+        <v>2359</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>372</v>
@@ -77636,25 +77645,22 @@
         <v>373</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>4232</v>
+        <v>40</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>4233</v>
+        <v>4330</v>
       </c>
       <c r="K170" t="s">
         <v>4234</v>
       </c>
       <c r="L170" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="M170" t="s">
-        <v>628</v>
+        <v>1781</v>
       </c>
       <c r="N170" t="s">
-        <v>446</v>
-      </c>
-      <c r="P170" t="s">
-        <v>277</v>
+        <v>21</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -77662,13 +77668,13 @@
         <v>4364</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>2408</v>
+        <v>2376</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>2409</v>
+        <v>2377</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>2406</v>
+        <v>2378</v>
       </c>
       <c r="E172" s="8" t="s">
         <v>372</v>
@@ -77686,36 +77692,33 @@
         <v>4232</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>4233</v>
+        <v>4267</v>
       </c>
       <c r="K172" t="s">
         <v>4234</v>
       </c>
       <c r="L172" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M172" t="s">
-        <v>1144</v>
+        <v>4365</v>
       </c>
       <c r="N172" t="s">
-        <v>303</v>
-      </c>
-      <c r="O172" t="s">
-        <v>277</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="7" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>4366</v>
+        <v>2401</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>717</v>
+        <v>93</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>2430</v>
+        <v>2402</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>372</v>
@@ -77739,13 +77742,16 @@
         <v>4234</v>
       </c>
       <c r="L174" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M174" t="s">
-        <v>1057</v>
+        <v>628</v>
       </c>
       <c r="N174" t="s">
-        <v>289</v>
+        <v>446</v>
+      </c>
+      <c r="P174" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -77753,13 +77759,13 @@
         <v>4367</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>2429</v>
+        <v>2408</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>484</v>
+        <v>2409</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>2430</v>
+        <v>2406</v>
       </c>
       <c r="E176" s="8" t="s">
         <v>372</v>
@@ -77783,13 +77789,16 @@
         <v>4234</v>
       </c>
       <c r="L176" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M176" t="s">
-        <v>2431</v>
+        <v>1144</v>
       </c>
       <c r="N176" t="s">
-        <v>289</v>
+        <v>303</v>
+      </c>
+      <c r="O176" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -77797,13 +77806,13 @@
         <v>4368</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>2559</v>
+        <v>4369</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>390</v>
+        <v>717</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>2560</v>
+        <v>2430</v>
       </c>
       <c r="E178" s="8" t="s">
         <v>372</v>
@@ -77830,24 +77839,24 @@
         <v>18</v>
       </c>
       <c r="M178" t="s">
-        <v>794</v>
+        <v>1057</v>
       </c>
       <c r="N178" t="s">
-        <v>20</v>
+        <v>289</v>
       </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="7" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>2599</v>
+        <v>2429</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>2600</v>
+        <v>484</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>2601</v>
+        <v>2430</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>372</v>
@@ -77864,6 +77873,9 @@
       <c r="I180" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J180" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K180" t="s">
         <v>4234</v>
       </c>
@@ -77871,24 +77883,24 @@
         <v>18</v>
       </c>
       <c r="M180" t="s">
-        <v>2602</v>
+        <v>2431</v>
       </c>
       <c r="N180" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="7" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>2604</v>
+        <v>2559</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>2605</v>
+        <v>390</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>2606</v>
+        <v>2560</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>372</v>
@@ -77915,7 +77927,7 @@
         <v>18</v>
       </c>
       <c r="M182" t="s">
-        <v>399</v>
+        <v>794</v>
       </c>
       <c r="N182" t="s">
         <v>20</v>
@@ -77923,16 +77935,16 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="7" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>2617</v>
+        <v>2599</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>24</v>
+        <v>2600</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>2618</v>
+        <v>2601</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>372</v>
@@ -77949,9 +77961,6 @@
       <c r="I184" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J184" s="8" t="s">
-        <v>4233</v>
-      </c>
       <c r="K184" t="s">
         <v>4234</v>
       </c>
@@ -77959,24 +77968,24 @@
         <v>18</v>
       </c>
       <c r="M184" t="s">
-        <v>1354</v>
+        <v>2602</v>
       </c>
       <c r="N184" t="s">
-        <v>481</v>
+        <v>311</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="7" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>2625</v>
+        <v>2604</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>115</v>
+        <v>2605</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>2626</v>
+        <v>2606</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>372</v>
@@ -78003,24 +78012,24 @@
         <v>18</v>
       </c>
       <c r="M186" t="s">
-        <v>476</v>
+        <v>399</v>
       </c>
       <c r="N186" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="7" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>2656</v>
+        <v>2617</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>2145</v>
+        <v>24</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>2657</v>
+        <v>2618</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>372</v>
@@ -78038,7 +78047,7 @@
         <v>4232</v>
       </c>
       <c r="J188" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K188" t="s">
         <v>4234</v>
@@ -78047,24 +78056,24 @@
         <v>18</v>
       </c>
       <c r="M188" t="s">
-        <v>464</v>
+        <v>1354</v>
       </c>
       <c r="N188" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="7" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>2661</v>
+        <v>2625</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>2662</v>
+        <v>115</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>2663</v>
+        <v>2626</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>372</v>
@@ -78081,6 +78090,9 @@
       <c r="I190" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J190" s="8" t="s">
+        <v>4233</v>
+      </c>
       <c r="K190" t="s">
         <v>4234</v>
       </c>
@@ -78088,24 +78100,24 @@
         <v>18</v>
       </c>
       <c r="M190" t="s">
-        <v>2664</v>
+        <v>476</v>
       </c>
       <c r="N190" t="s">
-        <v>1615</v>
+        <v>120</v>
       </c>
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="7" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>34</v>
+        <v>2145</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>29</v>
+        <v>2657</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>372</v>
@@ -78123,7 +78135,7 @@
         <v>4232</v>
       </c>
       <c r="J192" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K192" t="s">
         <v>4234</v>
@@ -78132,24 +78144,24 @@
         <v>18</v>
       </c>
       <c r="M192" t="s">
-        <v>776</v>
+        <v>464</v>
       </c>
       <c r="N192" t="s">
-        <v>538</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="7" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>2751</v>
+        <v>2661</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>606</v>
+        <v>2662</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>2752</v>
+        <v>2663</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>372</v>
@@ -78166,9 +78178,6 @@
       <c r="I194" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J194" s="8" t="s">
-        <v>4267</v>
-      </c>
       <c r="K194" t="s">
         <v>4234</v>
       </c>
@@ -78176,10 +78185,10 @@
         <v>18</v>
       </c>
       <c r="M194" t="s">
-        <v>2697</v>
+        <v>2664</v>
       </c>
       <c r="N194" t="s">
-        <v>4377</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -78187,13 +78196,13 @@
         <v>4378</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>2759</v>
+        <v>2666</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>133</v>
+        <v>34</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>2760</v>
+        <v>29</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>372</v>
@@ -78220,10 +78229,10 @@
         <v>18</v>
       </c>
       <c r="M196" t="s">
-        <v>1810</v>
+        <v>776</v>
       </c>
       <c r="N196" t="s">
-        <v>399</v>
+        <v>538</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -78231,13 +78240,13 @@
         <v>4379</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>2774</v>
+        <v>2751</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>2775</v>
+        <v>606</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>2776</v>
+        <v>2752</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>372</v>
@@ -78255,7 +78264,7 @@
         <v>4232</v>
       </c>
       <c r="J198" s="8" t="s">
-        <v>4253</v>
+        <v>4267</v>
       </c>
       <c r="K198" t="s">
         <v>4234</v>
@@ -78264,24 +78273,24 @@
         <v>18</v>
       </c>
       <c r="M198" t="s">
-        <v>1938</v>
+        <v>2697</v>
       </c>
       <c r="N198" t="s">
-        <v>446</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="7" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>2780</v>
+        <v>2759</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>2781</v>
+        <v>133</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>2782</v>
+        <v>2760</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>372</v>
@@ -78296,10 +78305,10 @@
         <v>373</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>40</v>
+        <v>4232</v>
       </c>
       <c r="J200" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K200" t="s">
         <v>4234</v>
@@ -78308,24 +78317,24 @@
         <v>18</v>
       </c>
       <c r="M200" t="s">
-        <v>2883</v>
+        <v>1810</v>
       </c>
       <c r="N200" t="s">
-        <v>260</v>
+        <v>399</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="7" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>2790</v>
+        <v>2774</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>1713</v>
+        <v>2775</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>2791</v>
+        <v>2776</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>372</v>
@@ -78342,6 +78351,9 @@
       <c r="I202" s="8" t="s">
         <v>4232</v>
       </c>
+      <c r="J202" s="8" t="s">
+        <v>4253</v>
+      </c>
       <c r="K202" t="s">
         <v>4234</v>
       </c>
@@ -78349,24 +78361,24 @@
         <v>18</v>
       </c>
       <c r="M202" t="s">
-        <v>1586</v>
+        <v>1938</v>
       </c>
       <c r="N202" t="s">
-        <v>329</v>
+        <v>446</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="7" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>2799</v>
+        <v>2780</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>220</v>
+        <v>2781</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>2800</v>
+        <v>2782</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>372</v>
@@ -78381,10 +78393,10 @@
         <v>373</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>4232</v>
+        <v>40</v>
       </c>
       <c r="J204" s="8" t="s">
-        <v>4253</v>
+        <v>4244</v>
       </c>
       <c r="K204" t="s">
         <v>4234</v>
@@ -78393,24 +78405,24 @@
         <v>18</v>
       </c>
       <c r="M204" t="s">
-        <v>319</v>
+        <v>2883</v>
       </c>
       <c r="N204" t="s">
-        <v>393</v>
+        <v>260</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="7" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>2810</v>
+        <v>2790</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>1035</v>
+        <v>1713</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>2811</v>
+        <v>2791</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>372</v>
@@ -78427,9 +78439,6 @@
       <c r="I206" s="8" t="s">
         <v>4232</v>
       </c>
-      <c r="J206" s="8" t="s">
-        <v>4267</v>
-      </c>
       <c r="K206" t="s">
         <v>4234</v>
       </c>
@@ -78437,24 +78446,24 @@
         <v>18</v>
       </c>
       <c r="M206" t="s">
-        <v>1178</v>
+        <v>1586</v>
       </c>
       <c r="N206" t="s">
-        <v>2322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="7" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>2827</v>
+        <v>2799</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>558</v>
+        <v>220</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>2828</v>
+        <v>2800</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>372</v>
@@ -78481,24 +78490,24 @@
         <v>18</v>
       </c>
       <c r="M208" t="s">
-        <v>2536</v>
+        <v>319</v>
       </c>
       <c r="N208" t="s">
-        <v>1040</v>
+        <v>393</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="7" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>4386</v>
+        <v>2810</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>1225</v>
+        <v>1035</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>4387</v>
+        <v>2811</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>372</v>
@@ -78525,24 +78534,24 @@
         <v>18</v>
       </c>
       <c r="M210" t="s">
-        <v>2923</v>
+        <v>1178</v>
       </c>
       <c r="N210" t="s">
-        <v>4025</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="7" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>2933</v>
+        <v>2827</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>2934</v>
+        <v>558</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>2935</v>
+        <v>2828</v>
       </c>
       <c r="E212" s="8" t="s">
         <v>372</v>
@@ -78560,7 +78569,7 @@
         <v>4232</v>
       </c>
       <c r="J212" s="8" t="s">
-        <v>4244</v>
+        <v>4253</v>
       </c>
       <c r="K212" t="s">
         <v>4234</v>
@@ -78569,24 +78578,24 @@
         <v>18</v>
       </c>
       <c r="M212" t="s">
-        <v>1298</v>
+        <v>2536</v>
       </c>
       <c r="N212" t="s">
-        <v>299</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="7" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>4389</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>2941</v>
-      </c>
       <c r="C214" s="8" t="s">
-        <v>2942</v>
+        <v>1225</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>2943</v>
+        <v>4390</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>372</v>
@@ -78604,7 +78613,7 @@
         <v>4232</v>
       </c>
       <c r="J214" s="8" t="s">
-        <v>4244</v>
+        <v>4267</v>
       </c>
       <c r="K214" t="s">
         <v>4234</v>
@@ -78613,24 +78622,24 @@
         <v>18</v>
       </c>
       <c r="M214" t="s">
-        <v>2394</v>
+        <v>2923</v>
       </c>
       <c r="N214" t="s">
-        <v>404</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="7" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>2966</v>
+        <v>2933</v>
       </c>
       <c r="C216" s="8" t="s">
-        <v>489</v>
+        <v>2934</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>2967</v>
+        <v>2935</v>
       </c>
       <c r="E216" s="8" t="s">
         <v>372</v>
@@ -78657,24 +78666,24 @@
         <v>18</v>
       </c>
       <c r="M216" t="s">
-        <v>2968</v>
+        <v>1298</v>
       </c>
       <c r="N216" t="s">
-        <v>617</v>
+        <v>299</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="7" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>2993</v>
+        <v>2941</v>
       </c>
       <c r="C218" s="8" t="s">
-        <v>2994</v>
+        <v>2942</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>2991</v>
+        <v>2943</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>372</v>
@@ -78692,33 +78701,33 @@
         <v>4232</v>
       </c>
       <c r="J218" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K218" t="s">
         <v>4234</v>
       </c>
       <c r="L218" t="s">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="M218" t="s">
-        <v>2726</v>
+        <v>2394</v>
       </c>
       <c r="N218" t="s">
-        <v>21</v>
+        <v>404</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="7" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>2990</v>
+        <v>2966</v>
       </c>
       <c r="C220" s="8" t="s">
-        <v>1410</v>
+        <v>489</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>2991</v>
+        <v>2967</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>372</v>
@@ -78736,7 +78745,7 @@
         <v>4232</v>
       </c>
       <c r="J220" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K220" t="s">
         <v>4234</v>
@@ -78745,24 +78754,24 @@
         <v>18</v>
       </c>
       <c r="M220" t="s">
-        <v>2726</v>
+        <v>2968</v>
       </c>
       <c r="N220" t="s">
-        <v>21</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="7" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>3007</v>
+        <v>2993</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>3008</v>
+        <v>2994</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>3000</v>
+        <v>2991</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>372</v>
@@ -78780,33 +78789,33 @@
         <v>4232</v>
       </c>
       <c r="J222" s="8" t="s">
-        <v>4244</v>
+        <v>4233</v>
       </c>
       <c r="K222" t="s">
         <v>4234</v>
       </c>
       <c r="L222" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="M222" t="s">
-        <v>2435</v>
+        <v>2726</v>
       </c>
       <c r="N222" t="s">
-        <v>617</v>
+        <v>21</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="7" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>3070</v>
+        <v>2990</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>3071</v>
+        <v>1410</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>3068</v>
+        <v>2991</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>372</v>
@@ -78833,24 +78842,24 @@
         <v>18</v>
       </c>
       <c r="M224" t="s">
-        <v>1731</v>
+        <v>2726</v>
       </c>
       <c r="N224" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="7" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>3067</v>
+        <v>3007</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>38</v>
+        <v>3008</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>3068</v>
+        <v>3000</v>
       </c>
       <c r="E226" s="8" t="s">
         <v>372</v>
@@ -78868,7 +78877,7 @@
         <v>4232</v>
       </c>
       <c r="J226" s="8" t="s">
-        <v>4233</v>
+        <v>4244</v>
       </c>
       <c r="K226" t="s">
         <v>4234</v>
@@ -78877,24 +78886,24 @@
         <v>18</v>
       </c>
       <c r="M226" t="s">
-        <v>1731</v>
+        <v>2435</v>
       </c>
       <c r="N226" t="s">
-        <v>289</v>
+        <v>617</v>
       </c>
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="7" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>3104</v>
+        <v>3070</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>164</v>
+        <v>3071</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>3102</v>
+        <v>3068</v>
       </c>
       <c r="E228" s="8" t="s">
         <v>372</v>
@@ -78912,7 +78921,7 @@
         <v>4232</v>
       </c>
       <c r="J228" s="8" t="s">
-        <v>4267</v>
+        <v>4233</v>
       </c>
       <c r="K228" t="s">
         <v>4234</v>
@@ -78921,24 +78930,24 @@
         <v>18</v>
       </c>
       <c r="M228" t="s">
-        <v>578</v>
+        <v>1731</v>
       </c>
       <c r="N228" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="7" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>3101</v>
+        <v>3067</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>3102</v>
+        <v>3068</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>372</v>
@@ -78956,7 +78965,7 @@
         <v>4232</v>
       </c>
       <c r="J230" s="8" t="s">
-        <v>4267</v>
+        <v>4233</v>
       </c>
       <c r="K230" t="s">
         <v>4234</v>
@@ -78965,24 +78974,24 @@
         <v>18</v>
       </c>
       <c r="M230" t="s">
-        <v>578</v>
+        <v>1731</v>
       </c>
       <c r="N230" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="7" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>2072</v>
+        <v>164</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>372</v>
@@ -79000,7 +79009,7 @@
         <v>4232</v>
       </c>
       <c r="J232" s="8" t="s">
-        <v>4244</v>
+        <v>4267</v>
       </c>
       <c r="K232" t="s">
         <v>4234</v>
@@ -79009,24 +79018,24 @@
         <v>18</v>
       </c>
       <c r="M232" t="s">
-        <v>3108</v>
+        <v>578</v>
       </c>
       <c r="N232" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="7" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>3118</v>
+        <v>3101</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>3119</v>
+        <v>3102</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>372</v>
@@ -79044,7 +79053,7 @@
         <v>4232</v>
       </c>
       <c r="J234" s="8" t="s">
-        <v>4233</v>
+        <v>4267</v>
       </c>
       <c r="K234" t="s">
         <v>4234</v>
@@ -79053,9 +79062,97 @@
         <v>18</v>
       </c>
       <c r="M234" t="s">
+        <v>578</v>
+      </c>
+      <c r="N234" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
+      <c r="A236" s="7" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>4232</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>4244</v>
+      </c>
+      <c r="K236" t="s">
+        <v>4234</v>
+      </c>
+      <c r="L236" t="s">
+        <v>18</v>
+      </c>
+      <c r="M236" t="s">
+        <v>3108</v>
+      </c>
+      <c r="N236" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
+      <c r="A238" s="7" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>4232</v>
+      </c>
+      <c r="J238" s="8" t="s">
+        <v>4233</v>
+      </c>
+      <c r="K238" t="s">
+        <v>4234</v>
+      </c>
+      <c r="L238" t="s">
+        <v>18</v>
+      </c>
+      <c r="M238" t="s">
         <v>409</v>
       </c>
-      <c r="N234" t="s">
+      <c r="N238" t="s">
         <v>481</v>
       </c>
     </row>
@@ -79295,6 +79392,10 @@
     <hyperlink ref="B232" r:id="rId232"/>
     <hyperlink ref="A234" r:id="rId233"/>
     <hyperlink ref="B234" r:id="rId234"/>
+    <hyperlink ref="A236" r:id="rId235"/>
+    <hyperlink ref="B236" r:id="rId236"/>
+    <hyperlink ref="A238" r:id="rId237"/>
+    <hyperlink ref="B238" r:id="rId238"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79375,7 +79476,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="7" t="s">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>3137</v>
@@ -79399,10 +79500,10 @@
         <v>373</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K2" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -79416,7 +79517,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
-        <v>4403</v>
+        <v>4406</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>3177</v>
@@ -79440,10 +79541,10 @@
         <v>373</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K4" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -79460,7 +79561,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
-        <v>4404</v>
+        <v>4407</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3218</v>
@@ -79484,10 +79585,10 @@
         <v>373</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K6" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -79501,7 +79602,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
-        <v>4405</v>
+        <v>4408</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>3222</v>
@@ -79525,10 +79626,10 @@
         <v>373</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K8" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -79542,7 +79643,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
-        <v>4406</v>
+        <v>4409</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>3332</v>
@@ -79569,7 +79670,7 @@
         <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L10" t="s">
         <v>208</v>
@@ -79583,7 +79684,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
-        <v>4407</v>
+        <v>4410</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>3384</v>
@@ -79607,10 +79708,10 @@
         <v>373</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K12" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L12" t="s">
         <v>18</v>
@@ -79624,7 +79725,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
-        <v>4408</v>
+        <v>4411</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>3413</v>
@@ -79648,10 +79749,10 @@
         <v>373</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K14" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
@@ -79665,7 +79766,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
-        <v>4409</v>
+        <v>4412</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>3453</v>
@@ -79689,10 +79790,10 @@
         <v>373</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K16" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L16" t="s">
         <v>18</v>
@@ -79706,7 +79807,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="7" t="s">
-        <v>4410</v>
+        <v>4413</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>3466</v>
@@ -79730,10 +79831,10 @@
         <v>373</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K18" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L18" t="s">
         <v>510</v>
@@ -79750,7 +79851,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="7" t="s">
-        <v>4411</v>
+        <v>4414</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>3588</v>
@@ -79777,7 +79878,7 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L20" t="s">
         <v>18</v>
@@ -79791,7 +79892,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="7" t="s">
-        <v>4412</v>
+        <v>4415</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>3663</v>
@@ -79815,10 +79916,10 @@
         <v>373</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K22" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L22" t="s">
         <v>208</v>
@@ -79832,7 +79933,7 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="7" t="s">
-        <v>4413</v>
+        <v>4416</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>3680</v>
@@ -79859,7 +79960,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L24" t="s">
         <v>18</v>
@@ -79873,7 +79974,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="7" t="s">
-        <v>4414</v>
+        <v>4417</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>3696</v>
@@ -79897,10 +79998,10 @@
         <v>373</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K26" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L26" t="s">
         <v>18</v>
@@ -79914,7 +80015,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7" t="s">
-        <v>4415</v>
+        <v>4418</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>3692</v>
@@ -79938,10 +80039,10 @@
         <v>373</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K28" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L28" t="s">
         <v>18</v>
@@ -79955,7 +80056,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7" t="s">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>3720</v>
@@ -79982,7 +80083,7 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L30" t="s">
         <v>18</v>
@@ -79996,16 +80097,16 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7" t="s">
-        <v>4417</v>
+        <v>4420</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>250</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>4419</v>
+        <v>4422</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>372</v>
@@ -80014,16 +80115,16 @@
         <v>373</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>4352</v>
+        <v>4355</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>373</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K32" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L32" t="s">
         <v>208</v>
@@ -80037,7 +80138,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="7" t="s">
-        <v>4420</v>
+        <v>4423</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>3864</v>
@@ -80061,10 +80162,10 @@
         <v>373</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K34" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L34" t="s">
         <v>18</v>
@@ -80078,7 +80179,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="7" t="s">
-        <v>4421</v>
+        <v>4424</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>3949</v>
@@ -80102,10 +80203,10 @@
         <v>373</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K36" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L36" t="s">
         <v>510</v>
@@ -80117,12 +80218,12 @@
         <v>2584</v>
       </c>
       <c r="P36" t="s">
-        <v>4422</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="7" t="s">
-        <v>4423</v>
+        <v>4426</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>3959</v>
@@ -80146,10 +80247,10 @@
         <v>373</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K38" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L38" t="s">
         <v>18</v>
@@ -80163,7 +80264,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="7" t="s">
-        <v>4424</v>
+        <v>4427</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>3963</v>
@@ -80187,10 +80288,10 @@
         <v>373</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K40" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L40" t="s">
         <v>18</v>
@@ -80199,12 +80300,12 @@
         <v>1329</v>
       </c>
       <c r="N40" t="s">
-        <v>4425</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="7" t="s">
-        <v>4426</v>
+        <v>4429</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>4043</v>
@@ -80228,10 +80329,10 @@
         <v>373</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K42" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L42" t="s">
         <v>18</v>
@@ -80245,7 +80346,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="7" t="s">
-        <v>4427</v>
+        <v>4430</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>4050</v>
@@ -80269,16 +80370,16 @@
         <v>373</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K44" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L44" t="s">
         <v>510</v>
       </c>
       <c r="M44" t="s">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="N44" t="s">
         <v>1329</v>
@@ -80289,7 +80390,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="7" t="s">
-        <v>4428</v>
+        <v>4431</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>4059</v>
@@ -80313,10 +80414,10 @@
         <v>373</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K46" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L46" t="s">
         <v>18</v>
@@ -80330,7 +80431,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="7" t="s">
-        <v>4429</v>
+        <v>4432</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>4062</v>
@@ -80354,10 +80455,10 @@
         <v>373</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K48" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L48" t="s">
         <v>510</v>
@@ -80374,7 +80475,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="7" t="s">
-        <v>4430</v>
+        <v>4433</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>4071</v>
@@ -80398,10 +80499,10 @@
         <v>373</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K50" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L50" t="s">
         <v>510</v>
@@ -80413,12 +80514,12 @@
         <v>481</v>
       </c>
       <c r="P50" t="s">
-        <v>4431</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="7" t="s">
-        <v>4432</v>
+        <v>4435</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>4083</v>
@@ -80442,10 +80543,10 @@
         <v>373</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K52" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L52" t="s">
         <v>18</v>
@@ -80459,7 +80560,7 @@
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="7" t="s">
-        <v>4433</v>
+        <v>4436</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>4117</v>
@@ -80483,16 +80584,16 @@
         <v>373</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K54" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L54" t="s">
         <v>510</v>
       </c>
       <c r="M54" t="s">
-        <v>4340</v>
+        <v>4343</v>
       </c>
       <c r="N54" t="s">
         <v>1329</v>
@@ -80500,7 +80601,7 @@
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="7" t="s">
-        <v>4434</v>
+        <v>4437</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>4155</v>
@@ -80524,10 +80625,10 @@
         <v>373</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K56" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L56" t="s">
         <v>18</v>
@@ -80541,7 +80642,7 @@
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="7" t="s">
-        <v>4435</v>
+        <v>4438</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>4171</v>
@@ -80565,10 +80666,10 @@
         <v>373</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="K58" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L58" t="s">
         <v>18</v>
@@ -80582,7 +80683,7 @@
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="7" t="s">
-        <v>4436</v>
+        <v>4439</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>4222</v>
@@ -80606,7 +80707,7 @@
         <v>373</v>
       </c>
       <c r="K60" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L60" t="s">
         <v>18</v>
@@ -80620,7 +80721,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="7" t="s">
-        <v>4437</v>
+        <v>4440</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>4216</v>
@@ -80644,13 +80745,13 @@
         <v>373</v>
       </c>
       <c r="K62" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="L62" t="s">
         <v>18</v>
       </c>
       <c r="M62" t="s">
-        <v>4438</v>
+        <v>4441</v>
       </c>
       <c r="N62" t="s">
         <v>446</v>
